--- a/Content/Tractor_images/tractorimg2.xlsx
+++ b/Content/Tractor_images/tractorimg2.xlsx
@@ -14,15 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Indo Farm Tractors</t>
-  </si>
-  <si>
-    <t>1020 DI</t>
-  </si>
-  <si>
-    <t>['1020DIimg0-indo-farm-1020-di5.png', '1020DIimg1-indo-farm-1020-di0.png', '1020DIimg2-indo-farm-1020-di5.png']</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+  <si>
+    <t>Sonalika Tractors</t>
+  </si>
+  <si>
+    <t>Tiger DI 50</t>
+  </si>
+  <si>
+    <t>Tiger 47</t>
+  </si>
+  <si>
+    <t>['TigerDI50img0-sonalika-tiger-di-50-1696592364.png', 'TigerDI50img1-sonalika-tiger-di-50-16965923640.png', 'TigerDI50img2-sonalika-tiger-di-50-1696592364.png']</t>
+  </si>
+  <si>
+    <t>['Tiger47img0-tiger-47-1631530246.png', 'Tiger47img1-upload-1631530246-0.png', 'Tiger47img2-tiger-47-1631530246.png']</t>
   </si>
   <si>
     <t>Brand</t>
@@ -387,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -395,13 +401,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -412,7 +418,18 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
